--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>142857.1428571429</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>142857.1428571429</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="33">
@@ -767,17 +767,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>571428.5714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142857.1428571429</v>
+        <v>571428.5714285715</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142857.1428571429</v>
+        <v>571428.5714285715</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571428.5714285715</v>
+        <v>2285714.285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571428.5714285715</v>
+        <v>785714.2857142858</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>857142.8571428573</v>
+        <v>1178571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>857142.8571428573</v>
+        <v>1178571.428571429</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571428.5714285715</v>
+        <v>785714.2857142858</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>857142.8571428573</v>
+        <v>1178571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>857142.8571428573</v>
+        <v>1178571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2285714.285714286</v>
+        <v>3142857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>785714.2857142858</v>
+        <v>1571428.571428572</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785714.2857142858</v>
+        <v>1571428.571428572</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3142857.142857143</v>
+        <v>6285714.285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1571428.571428572</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1571428.571428572</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6285714.285714286</v>
+        <v>7428571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1857142.857142857</v>
+        <v>2142857.142857143</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1857142.857142857</v>
+        <v>2142857.142857143</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7428571.428571429</v>
+        <v>8571428.571428573</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-33 Pen Design  8-2024.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2142857.142857143</v>
+        <v>2214285.714285715</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2142857.142857143</v>
+        <v>2214285.714285715</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8571428.571428573</v>
+        <v>8857142.857142858</v>
       </c>
     </row>
   </sheetData>
